--- a/data/Subset1_WithDialogActs/Stephanies group 1_first grade.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Stephanies group 1_first grade.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2951,12 +2951,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3677,12 +3677,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
